--- a/biology/Histoire de la zoologie et de la botanique/Frederic_Augustus_Lucas/Frederic_Augustus_Lucas.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederic_Augustus_Lucas/Frederic_Augustus_Lucas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederic Augustus Lucas est un directeur de muséum et un zoologiste américain, né le 25 mars 1852 à Plymouth (Massachusetts) et mort le 9 février 1929 à Flushing.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il apprend, sur le navire de son père, Augustus Henry Lucas, le métier de marin et se passionne, très jeune, pour les oiseaux. Il apprend la taxidermie dans une boutique de charpentier. Il accomplit plusieurs voyages qui vont marquer sa vie. Le premier, en 1861-1862, le conduit de New York à San Francisco puis au Japon, en Chine et retour en Amérique du Nord en passant par le sud de l’Afrique. Le second, en 1869-1870, le conduit à Valparaíso, Callao et aux Îles Chincha où il relâche durant trois mois. Il retourne à Boston après s’être arrêté à Londres. Il décide de vivre de la récolte des oiseaux et de leur taxidermie.
 Il est alors embauché par l’entreprise de Henry Augustus Ward (1834-1906) qui fournit du matériel pédagogique comme des animaux naturalisés, des squelettes articulés ou montés et d’autres objets. Outre qu’il se perfectionne dans les méthodes utilisées pour la conservation des spécimens d’histoire naturelle, Lucas découvre le monde scientifique. Il fait ainsi la rencontre de Joel Asaph Allen (1838-1921) qui l’aide à réaliser sa première publication.
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Charles Haskins Townsend (1930). In Memoriam : Frederick Augustus Lucas, The Auk, 47 (2) : 147-158.  (ISSN 0004-8038) — L’article donne la liste des publications de Frederic Augustus Lucas.</t>
         </is>
